--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\project\test\choujiang\test\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="cOM6AFp5AQvK6p4yKfrmzI1+OVpfmhYViZOn5N+BTok="/>
@@ -16,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="140">
   <si>
     <t>工号</t>
   </si>
@@ -27,12 +35,6 @@
     <t>部门</t>
   </si>
   <si>
-    <t>黎姿</t>
-  </si>
-  <si>
-    <t>行政部</t>
-  </si>
-  <si>
     <t>羅溫</t>
   </si>
   <si>
@@ -48,24 +50,15 @@
     <t>叶新</t>
   </si>
   <si>
-    <t>人事部</t>
-  </si>
-  <si>
     <t>朵拉</t>
   </si>
   <si>
-    <t>阿什利</t>
-  </si>
-  <si>
     <t>青桃</t>
   </si>
   <si>
     <t>珍娜</t>
   </si>
   <si>
-    <t>菲比</t>
-  </si>
-  <si>
     <t>玉珍</t>
   </si>
   <si>
@@ -75,9 +68,6 @@
     <t>胖虎</t>
   </si>
   <si>
-    <t>審計部</t>
-  </si>
-  <si>
     <t>五月</t>
   </si>
   <si>
@@ -105,9 +95,6 @@
     <t>Kim</t>
   </si>
   <si>
-    <t>IT部</t>
-  </si>
-  <si>
     <t>Austin</t>
   </si>
   <si>
@@ -123,9 +110,6 @@
     <t>丽音</t>
   </si>
   <si>
-    <t>廣告部</t>
-  </si>
-  <si>
     <t>张勇</t>
   </si>
   <si>
@@ -138,24 +122,15 @@
     <t>國安</t>
   </si>
   <si>
-    <t>昊明</t>
-  </si>
-  <si>
     <t>魯尼</t>
   </si>
   <si>
-    <t>元浩</t>
-  </si>
-  <si>
     <t>致遠</t>
   </si>
   <si>
     <t>皮克</t>
   </si>
   <si>
-    <t>研发&amp;UI部</t>
-  </si>
-  <si>
     <t>拉斐爾</t>
   </si>
   <si>
@@ -180,24 +155,12 @@
     <t>小燕</t>
   </si>
   <si>
-    <t>直播部</t>
-  </si>
-  <si>
-    <t>亞軒</t>
-  </si>
-  <si>
     <t>艾咪</t>
   </si>
   <si>
-    <t>炎彬</t>
-  </si>
-  <si>
     <t>企鵝</t>
   </si>
   <si>
-    <t>客服部</t>
-  </si>
-  <si>
     <t>晶晶</t>
   </si>
   <si>
@@ -207,9 +170,6 @@
     <t>小月</t>
   </si>
   <si>
-    <t>莎拉</t>
-  </si>
-  <si>
     <t>妮妮</t>
   </si>
   <si>
@@ -234,9 +194,6 @@
     <t>阿東</t>
   </si>
   <si>
-    <t>越南行銷</t>
-  </si>
-  <si>
     <t>白羊</t>
   </si>
   <si>
@@ -255,9 +212,6 @@
     <t>一飛</t>
   </si>
   <si>
-    <t>尼克</t>
-  </si>
-  <si>
     <t>信</t>
   </si>
   <si>
@@ -267,9 +221,6 @@
     <t>冰冰</t>
   </si>
   <si>
-    <t>玲兒</t>
-  </si>
-  <si>
     <t>朱莉</t>
   </si>
   <si>
@@ -282,9 +233,6 @@
     <t>天香</t>
   </si>
   <si>
-    <t>阿灵</t>
-  </si>
-  <si>
     <t>阿孟</t>
   </si>
   <si>
@@ -303,9 +251,6 @@
     <t>阿文</t>
   </si>
   <si>
-    <t>月英</t>
-  </si>
-  <si>
     <t>米娜</t>
   </si>
   <si>
@@ -336,9 +281,6 @@
     <t>志強</t>
   </si>
   <si>
-    <t>泰國行销一组</t>
-  </si>
-  <si>
     <t>雨果</t>
   </si>
   <si>
@@ -354,9 +296,6 @@
     <t>里歐</t>
   </si>
   <si>
-    <t>印尼行銷</t>
-  </si>
-  <si>
     <t>肯特</t>
   </si>
   <si>
@@ -372,33 +311,169 @@
     <t>阿佐</t>
   </si>
   <si>
-    <t>小胖</t>
-  </si>
-  <si>
     <t>悅悅</t>
   </si>
   <si>
     <t>阿木</t>
   </si>
   <si>
-    <t>58行銷</t>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>行銷</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>人事</t>
+  </si>
+  <si>
+    <t>審計</t>
+  </si>
+  <si>
+    <t>客服</t>
+  </si>
+  <si>
+    <t>研發</t>
+  </si>
+  <si>
+    <t>行销</t>
+  </si>
+  <si>
+    <t>行政</t>
+  </si>
+  <si>
+    <t>廣告</t>
+  </si>
+  <si>
+    <t>莎菈</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>總務</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>司機</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Alyssa</t>
+  </si>
+  <si>
+    <t>Sonny</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Gino</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
+    <t>Renalie</t>
+  </si>
+  <si>
+    <t>清潔</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>直播</t>
+  </si>
+  <si>
+    <t>汪峰</t>
+  </si>
+  <si>
+    <t>克林</t>
+  </si>
+  <si>
+    <t>丹妮</t>
+  </si>
+  <si>
+    <t>米諾</t>
+  </si>
+  <si>
+    <t>Toby</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Rolly</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>可否抽奖</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft Yahei"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -406,45 +481,63 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -634,23 +727,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="26.71"/>
+    <col min="1" max="26" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:26" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,8 +755,12 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -684,18 +783,22 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="3">
-        <v>1.21700009E8</v>
+    <row r="2" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A2" s="4">
+        <v>131700003</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -718,18 +821,22 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="3">
-        <v>7.21900001E8</v>
+    <row r="3" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A3" s="4">
+        <v>131700005</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -752,18 +859,22 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="3">
-        <v>8.21900002E8</v>
+    <row r="4" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>111700145</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -786,18 +897,22 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="3">
-        <v>5.22000003E8</v>
+    <row r="5" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A5" s="4">
+        <v>142200001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -820,18 +935,22 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="3">
-        <v>8.22200001E8</v>
+    <row r="6" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A6" s="4">
+        <v>122200003</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -854,18 +973,22 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="3">
-        <v>1.22100001E8</v>
+    <row r="7" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A7" s="4">
+        <v>131700001</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -888,18 +1011,22 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="3">
-        <v>1.22200003E8</v>
+    <row r="8" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A8" s="4">
+        <v>111800071</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -922,18 +1049,22 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="3">
-        <v>5.22200004E8</v>
+    <row r="9" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A9" s="4">
+        <v>122100001</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -956,18 +1087,22 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="3">
-        <v>5.22300003E8</v>
+    <row r="10" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A10" s="4">
+        <v>161900001</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -990,18 +1125,22 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="3">
-        <v>5.22300005E8</v>
+    <row r="11" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A11" s="4">
+        <v>111900006</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1024,18 +1163,22 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="3">
-        <v>9.22300002E8</v>
+    <row r="12" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A12" s="4">
+        <v>161900003</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1058,18 +1201,22 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="3">
-        <v>8.22300006E8</v>
+    <row r="13" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A13" s="4">
+        <v>112200004</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1092,18 +1239,22 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="3">
-        <v>9.22300007E8</v>
+    <row r="14" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A14" s="4">
+        <v>162000003</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1126,18 +1277,22 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="3">
-        <v>1.11800071E8</v>
+    <row r="15" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A15" s="4">
+        <v>162000004</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1160,18 +1315,22 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="3">
-        <v>2.21700065E8</v>
+    <row r="16" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A16" s="4">
+        <v>221700065</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1194,18 +1353,22 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="3">
-        <v>1.61900003E8</v>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A17" s="4">
+        <v>211800261</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1228,18 +1391,22 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="3">
-        <v>1.61900001E8</v>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A18" s="4">
+        <v>251900005</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1262,18 +1429,22 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="3">
-        <v>5.62100002E8</v>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A19" s="4">
+        <v>251900006</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1296,18 +1467,22 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="3">
-        <v>2.11800261E8</v>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A20" s="4">
+        <v>511800082</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1330,18 +1505,22 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="3">
-        <v>8.12200014E8</v>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A21" s="4">
+        <v>511900017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1364,18 +1543,22 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="3">
-        <v>5.62200002E8</v>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A22" s="4">
+        <v>511900021</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1398,18 +1581,22 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="3">
-        <v>1.62000004E8</v>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A23" s="4">
+        <v>511900032</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1432,18 +1619,22 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="3">
-        <v>3.21700001E8</v>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A24" s="4">
+        <v>511900033</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1466,18 +1657,22 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="3">
-        <v>3.32300001E8</v>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A25" s="4">
+        <v>511900034</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1500,18 +1695,22 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" ht="17.25" customHeight="1">
-      <c r="A26" s="3">
-        <v>1.31700005E8</v>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A26" s="4">
+        <v>511900035</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1534,18 +1733,22 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" ht="17.25" customHeight="1">
-      <c r="A27" s="3">
-        <v>1.31700003E8</v>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A27" s="4">
+        <v>511800016</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1568,18 +1771,22 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" ht="17.25" customHeight="1">
-      <c r="A28" s="3">
-        <v>1.31700001E8</v>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A28" s="4">
+        <v>511900040</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1602,18 +1809,22 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" ht="17.25" customHeight="1">
-      <c r="A29" s="3">
-        <v>8.42200002E8</v>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A29" s="4">
+        <v>511900048</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1636,18 +1847,22 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" ht="17.25" customHeight="1">
-      <c r="A30" s="3">
-        <v>8.42300001E8</v>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A30" s="4">
+        <v>511900057</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1670,18 +1885,22 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" ht="17.25" customHeight="1">
-      <c r="A31" s="3">
-        <v>5.12200005E8</v>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A31" s="4">
+        <v>522000003</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1704,18 +1923,22 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" ht="17.25" customHeight="1">
-      <c r="A32" s="3">
-        <v>9.42300001E8</v>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A32" s="4">
+        <v>512000038</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1738,18 +1961,22 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" ht="17.25" customHeight="1">
-      <c r="A33" s="3">
-        <v>9.42300002E8</v>
+    <row r="33" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A33" s="4">
+        <v>512200005</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1772,18 +1999,22 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" ht="17.25" customHeight="1">
-      <c r="A34" s="3">
-        <v>5.42300003E8</v>
+    <row r="34" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A34" s="4">
+        <v>562100002</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1806,18 +2037,22 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" ht="17.25" customHeight="1">
-      <c r="A35" s="3">
-        <v>5.12200066E8</v>
+    <row r="35" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A35" s="4">
+        <v>542200002</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1840,18 +2075,22 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" ht="17.25" customHeight="1">
-      <c r="A36" s="3">
-        <v>9.42300004E8</v>
+    <row r="36" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A36" s="4">
+        <v>512200050</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1874,18 +2113,22 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" ht="17.25" customHeight="1">
-      <c r="A37" s="3">
-        <v>5.42300007E8</v>
+    <row r="37" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A37" s="4">
+        <v>512200064</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1908,18 +2151,22 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" ht="17.25" customHeight="1">
-      <c r="A38" s="3">
-        <v>2.51900005E8</v>
+    <row r="38" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A38" s="4">
+        <v>512200008</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1942,18 +2189,22 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" ht="17.25" customHeight="1">
-      <c r="A39" s="3">
-        <v>9.42200001E8</v>
+    <row r="39" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A39" s="4">
+        <v>512200036</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1976,18 +2227,22 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" ht="17.25" customHeight="1">
-      <c r="A40" s="3">
-        <v>5.42300001E8</v>
+    <row r="40" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A40" s="4">
+        <v>512200043</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2010,18 +2265,22 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" ht="17.25" customHeight="1">
-      <c r="A41" s="3">
-        <v>2.51900006E8</v>
+    <row r="41" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A41" s="4">
+        <v>512200057</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2044,18 +2303,22 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" ht="17.25" customHeight="1">
-      <c r="A42" s="3">
-        <v>1.42200001E8</v>
+    <row r="42" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A42" s="4">
+        <v>511900010</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2078,18 +2341,22 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" ht="17.25" customHeight="1">
-      <c r="A43" s="3">
-        <v>8.52200001E8</v>
+    <row r="43" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A43" s="4">
+        <v>512200066</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2112,18 +2379,22 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" ht="17.25" customHeight="1">
-      <c r="A44" s="3">
-        <v>5.42200002E8</v>
+    <row r="44" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A44" s="4">
+        <v>562200002</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2146,18 +2417,22 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" ht="17.25" customHeight="1">
-      <c r="A45" s="3">
-        <v>5.42300002E8</v>
+    <row r="45" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A45" s="4">
+        <v>512200030</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2180,18 +2455,22 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" ht="17.25" customHeight="1">
-      <c r="A46" s="3">
-        <v>5.42300004E8</v>
+    <row r="46" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A46" s="4">
+        <v>512200021</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2214,18 +2493,22 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" ht="17.25" customHeight="1">
-      <c r="A47" s="3">
-        <v>5.42300005E8</v>
+    <row r="47" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A47" s="4">
+        <v>511900056</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2248,18 +2531,22 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" ht="17.25" customHeight="1">
-      <c r="A48" s="3">
-        <v>5.42300006E8</v>
+    <row r="48" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A48" s="4">
+        <v>512200029</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2282,18 +2569,22 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" ht="17.25" customHeight="1">
-      <c r="A49" s="3">
-        <v>9.42300003E8</v>
+    <row r="49" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A49" s="4">
+        <v>721900001</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2316,18 +2607,22 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" ht="17.25" customHeight="1">
-      <c r="A50" s="3">
-        <v>1.12200004E8</v>
+    <row r="50" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A50" s="4">
+        <v>942200001</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2350,18 +2645,22 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" ht="17.25" customHeight="1">
-      <c r="A51" s="3">
-        <v>8.12100003E8</v>
+    <row r="51" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A51" s="4">
+        <v>821900002</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2384,18 +2683,22 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" ht="17.25" customHeight="1">
-      <c r="A52" s="3">
-        <v>1.62000003E8</v>
+    <row r="52" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A52" s="4">
+        <v>822200001</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -2418,18 +2721,22 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" ht="17.25" customHeight="1">
-      <c r="A53" s="3">
-        <v>5.1190001E8</v>
+    <row r="53" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A53" s="4">
+        <v>852200001</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2452,18 +2759,22 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" ht="17.25" customHeight="1">
-      <c r="A54" s="3">
-        <v>5.1220003E8</v>
+    <row r="54" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A54" s="4">
+        <v>812200010</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -2486,18 +2797,22 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" ht="17.25" customHeight="1">
-      <c r="A55" s="3">
-        <v>5.12200021E8</v>
+    <row r="55" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A55" s="4">
+        <v>812200014</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -2520,18 +2835,22 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" ht="17.25" customHeight="1">
-      <c r="A56" s="3">
-        <v>5.12200064E8</v>
+    <row r="56" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A56" s="4">
+        <v>842200002</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -2554,18 +2873,22 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" ht="17.25" customHeight="1">
-      <c r="A57" s="3">
-        <v>5.12200029E8</v>
+    <row r="57" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A57" s="4">
+        <v>812100003</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -2588,18 +2911,22 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" ht="17.25" customHeight="1">
-      <c r="A58" s="3">
-        <v>8.12200013E8</v>
+    <row r="58" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A58" s="4">
+        <v>812100002</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -2622,18 +2949,22 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" ht="17.25" customHeight="1">
-      <c r="A59" s="3">
-        <v>9.12300021E8</v>
+    <row r="59" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A59" s="4">
+        <v>812200013</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -2656,18 +2987,22 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" ht="17.25" customHeight="1">
-      <c r="A60" s="3">
-        <v>8.12100002E8</v>
+    <row r="60" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A60" s="4">
+        <v>321700001</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -2690,18 +3025,22 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" ht="17.25" customHeight="1">
-      <c r="A61" s="3">
-        <v>1.11900006E8</v>
+    <row r="61" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A61" s="4">
+        <v>321700009</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -2724,18 +3063,22 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" ht="17.25" customHeight="1">
-      <c r="A62" s="3">
-        <v>5.11900017E8</v>
+    <row r="62" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A62" s="4">
+        <v>321700020</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -2758,18 +3101,22 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" ht="17.25" customHeight="1">
-      <c r="A63" s="3">
-        <v>5.11800016E8</v>
+    <row r="63" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A63" s="4">
+        <v>321700021</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2792,18 +3139,22 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" ht="17.25" customHeight="1">
-      <c r="A64" s="3">
-        <v>5.11900021E8</v>
+    <row r="64" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A64" s="4">
+        <v>321700022</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2826,18 +3177,22 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" ht="17.25" customHeight="1">
-      <c r="A65" s="3">
-        <v>5.11800082E8</v>
+    <row r="65" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A65" s="4">
+        <v>321800001</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2860,18 +3215,22 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" ht="17.25" customHeight="1">
-      <c r="A66" s="3">
-        <v>5.12300014E8</v>
+    <row r="66" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A66" s="4">
+        <v>321800005</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -2894,18 +3253,22 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" ht="17.25" customHeight="1">
-      <c r="A67" s="3">
-        <v>5.12300015E8</v>
+    <row r="67" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A67" s="4">
+        <v>321900001</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -2928,18 +3291,22 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" ht="17.25" customHeight="1">
-      <c r="A68" s="3">
-        <v>5.12300024E8</v>
+    <row r="68" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A68" s="4">
+        <v>321900010</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -2962,18 +3329,22 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" ht="17.25" customHeight="1">
-      <c r="A69" s="3">
-        <v>5.1190003E8</v>
+    <row r="69" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A69" s="4">
+        <v>322000003</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -2996,18 +3367,22 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" ht="17.25" customHeight="1">
-      <c r="A70" s="3">
-        <v>5.1190004E8</v>
+    <row r="70" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A70" s="4">
+        <v>322100001</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -3030,18 +3405,22 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" ht="17.25" customHeight="1">
-      <c r="A71" s="3">
-        <v>5.11900034E8</v>
+    <row r="71" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A71" s="4">
+        <v>322200001</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -3064,18 +3443,22 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" ht="17.25" customHeight="1">
-      <c r="A72" s="3">
-        <v>5.11900032E8</v>
+    <row r="72" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A72" s="4">
+        <v>322200004</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -3098,18 +3481,22 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" ht="17.25" customHeight="1">
-      <c r="A73" s="3">
-        <v>5.12000002E8</v>
+    <row r="73" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A73" s="4">
+        <v>322200005</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -3132,16 +3519,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" ht="17.25" customHeight="1">
-      <c r="A74" s="3">
-        <v>5.11900033E8</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>72</v>
-      </c>
+    <row r="74" spans="1:26" ht="17.25" customHeight="1">
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -3166,18 +3544,22 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" ht="17.25" customHeight="1">
-      <c r="A75" s="3">
-        <v>5.1220005E8</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+    <row r="75" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A75" s="7">
+        <v>542300001</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -3200,18 +3582,22 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" ht="17.25" customHeight="1">
-      <c r="A76" s="3">
-        <v>5.12000038E8</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+    <row r="76" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A76" s="7">
+        <v>522300003</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -3234,18 +3620,22 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" ht="17.25" customHeight="1">
-      <c r="A77" s="3">
-        <v>5.11900035E8</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+    <row r="77" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A77" s="7">
+        <v>542300002</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -3268,18 +3658,22 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" ht="17.25" customHeight="1">
-      <c r="A78" s="3">
-        <v>5.12300008E8</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+    <row r="78" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A78" s="7">
+        <v>512300009</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -3302,18 +3696,22 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" ht="17.25" customHeight="1">
-      <c r="A79" s="3">
-        <v>5.12300009E8</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="4" t="s">
+    <row r="79" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A79" s="7">
+        <v>512300010</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="C79" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -3336,18 +3734,22 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" ht="17.25" customHeight="1">
-      <c r="A80" s="3">
-        <v>5.12300018E8</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+    <row r="80" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A80" s="7">
+        <v>522300005</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3370,18 +3772,22 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" ht="17.25" customHeight="1">
-      <c r="A81" s="3">
-        <v>5.11900048E8</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+    <row r="81" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A81" s="7">
+        <v>512300014</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3404,18 +3810,22 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" ht="17.25" customHeight="1">
-      <c r="A82" s="3">
-        <v>5.1230001E8</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+    <row r="82" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A82" s="7">
+        <v>512300015</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -3438,18 +3848,22 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" ht="17.25" customHeight="1">
-      <c r="A83" s="3">
-        <v>5.12300016E8</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+    <row r="83" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A83" s="7">
+        <v>512300016</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3472,18 +3886,22 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" ht="17.25" customHeight="1">
-      <c r="A84" s="3">
-        <v>5.12300021E8</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+    <row r="84" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A84" s="7">
+        <v>512300018</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -3506,18 +3924,22 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" ht="17.25" customHeight="1">
-      <c r="A85" s="3">
-        <v>5.1230002E8</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+    <row r="85" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A85" s="7">
+        <v>512300002</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -3540,18 +3962,22 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" ht="17.25" customHeight="1">
-      <c r="A86" s="3">
-        <v>5.11900056E8</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+    <row r="86" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A86" s="7">
+        <v>512300021</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -3574,18 +4000,22 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" ht="17.25" customHeight="1">
-      <c r="A87" s="3">
-        <v>5.12300002E8</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+    <row r="87" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A87" s="7">
+        <v>542300004</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -3608,18 +4038,22 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" ht="17.25" customHeight="1">
-      <c r="A88" s="3">
-        <v>5.12200057E8</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+    <row r="88" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A88" s="7">
+        <v>542300006</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -3642,18 +4076,22 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" ht="17.25" customHeight="1">
-      <c r="A89" s="3">
-        <v>5.12200036E8</v>
-      </c>
-      <c r="B89" s="4" t="s">
+    <row r="89" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A89" s="7">
+        <v>512300024</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="D89" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -3676,18 +4114,22 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" ht="17.25" customHeight="1">
-      <c r="A90" s="3">
-        <v>5.12200008E8</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+    <row r="90" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A90" s="7">
+        <v>542300007</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -3710,18 +4152,22 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" ht="17.25" customHeight="1">
-      <c r="A91" s="3">
-        <v>5.12200043E8</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+    <row r="91" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A91" s="7">
+        <v>512300025</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -3744,18 +4190,22 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" ht="17.25" customHeight="1">
-      <c r="A92" s="3">
-        <v>5.12300025E8</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+    <row r="92" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A92" s="7">
+        <v>512300023</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -3778,18 +4228,22 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" ht="17.25" customHeight="1">
-      <c r="A93" s="3">
-        <v>5.12300023E8</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+    <row r="93" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A93" s="7">
+        <v>512300026</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -3812,18 +4266,22 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" ht="17.25" customHeight="1">
-      <c r="A94" s="3">
-        <v>5.11900057E8</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+    <row r="94" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A94" s="7">
+        <v>912300002</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -3846,18 +4304,22 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" ht="17.25" customHeight="1">
-      <c r="A95" s="3">
-        <v>8.1220001E8</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+    <row r="95" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A95" s="7">
+        <v>912300003</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -3880,18 +4342,22 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" ht="17.25" customHeight="1">
-      <c r="A96" s="3">
-        <v>8.12300003E8</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+    <row r="96" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A96" s="7">
+        <v>912300007</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -3914,18 +4380,22 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" ht="17.25" customHeight="1">
-      <c r="A97" s="3">
-        <v>8.12300006E8</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+    <row r="97" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A97" s="7">
+        <v>912300013</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -3948,18 +4418,22 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" ht="17.25" customHeight="1">
-      <c r="A98" s="3">
-        <v>8.12300007E8</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+    <row r="98" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A98" s="7">
+        <v>912300015</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -3982,18 +4456,22 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" ht="17.25" customHeight="1">
-      <c r="A99" s="3">
-        <v>8.12300004E8</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+    <row r="99" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A99" s="7">
+        <v>912300016</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -4016,18 +4494,22 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" ht="17.25" customHeight="1">
-      <c r="A100" s="3">
-        <v>9.12300002E8</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+    <row r="100" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A100" s="7">
+        <v>942300001</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -4050,18 +4532,22 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" ht="17.25" customHeight="1">
-      <c r="A101" s="3">
-        <v>9.12300003E8</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+    <row r="101" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A101" s="7">
+        <v>942300002</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -4084,18 +4570,22 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" ht="17.25" customHeight="1">
-      <c r="A102" s="3">
-        <v>9.12300007E8</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+    <row r="102" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A102" s="7">
+        <v>912300021</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -4118,18 +4608,22 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" ht="17.25" customHeight="1">
-      <c r="A103" s="3">
-        <v>9.12300022E8</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+    <row r="103" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A103" s="7">
+        <v>912300022</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -4152,18 +4646,22 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" ht="17.25" customHeight="1">
-      <c r="A104" s="3">
-        <v>9.12300013E8</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+    <row r="104" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A104" s="7">
+        <v>922300007</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -4186,18 +4684,22 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" ht="17.25" customHeight="1">
-      <c r="A105" s="3">
-        <v>9.12300015E8</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+    <row r="105" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A105" s="7">
+        <v>912300023</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
@@ -4220,18 +4722,22 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" ht="17.25" customHeight="1">
-      <c r="A106" s="3">
-        <v>9.12300014E8</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+    <row r="106" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A106" s="7">
+        <v>812300006</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -4254,18 +4760,22 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" ht="17.25" customHeight="1">
-      <c r="A107" s="3">
-        <v>9.12300016E8</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
+    <row r="107" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A107" s="7">
+        <v>812300007</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
@@ -4288,18 +4798,22 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" ht="17.25" customHeight="1">
-      <c r="A108" s="3">
-        <v>1.11700145E8</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+    <row r="108" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A108" s="7">
+        <v>812300004</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -4322,10 +4836,195 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
+    <row r="109" spans="1:26" ht="15" customHeight="1">
+      <c r="A109" s="7">
+        <v>822300006</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" ht="15" customHeight="1">
+      <c r="A110" s="7">
+        <v>812300008</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" ht="15" customHeight="1">
+      <c r="A111" s="7">
+        <v>812300010</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" ht="15" customHeight="1">
+      <c r="A112" s="7">
+        <v>842300001</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1">
+      <c r="A113" s="7">
+        <v>812300003</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" customHeight="1">
+      <c r="A114" s="7">
+        <v>322300001</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1">
+      <c r="A115" s="7">
+        <v>332300001</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" customHeight="1">
+      <c r="A116" s="7">
+        <v>322300002</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" customHeight="1">
+      <c r="A117" s="7">
+        <v>322300003</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1">
+      <c r="A118" s="7">
+        <v>322300004</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" customHeight="1">
+      <c r="A119" s="7">
+        <v>322300005</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>